--- a/biology/Médecine/Serge_Viderman/Serge_Viderman.xlsx
+++ b/biology/Médecine/Serge_Viderman/Serge_Viderman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Serge Viderman (1916-1991[1]) est un psychanalyste français, né en Roumanie et mort à Paris.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Viderman (1916-1991) est un psychanalyste français, né en Roumanie et mort à Paris.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Parcours et œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Viderman naît en 1916 à Râmnicu Sărat dans une famille juive. Après un bac à Bucarest, il a fait des études de médecine et de philosophie en France où il s'installe en 1936. Durant la guerre, il échappe à la Gestapo après avoir été emprisonné une première fois durant trois mois.
-Il se tourne vers la psychanalyse et fait une analyse avec Sacha Nacht. Il est devenu membre de la Société psychanalytique de Paris en 1960. Il s'y distingue par ses écrits, conférences et prises de positions sur la cure, notamment dans son livre La construction de l'espace analytique qui le rend célèbre dans le milieu analytique et qui suscite des commentaires et controverses, notamment de la part de Francis Pasche. Après 1968, il a pris des positions contestées sur la formation des psychanalystes [2].
+Il se tourne vers la psychanalyse et fait une analyse avec Sacha Nacht. Il est devenu membre de la Société psychanalytique de Paris en 1960. Il s'y distingue par ses écrits, conférences et prises de positions sur la cure, notamment dans son livre La construction de l'espace analytique qui le rend célèbre dans le milieu analytique et qui suscite des commentaires et controverses, notamment de la part de Francis Pasche. Après 1968, il a pris des positions contestées sur la formation des psychanalystes .
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
